--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="24">
   <si>
     <t>LOB</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Chain Ladder</t>
-  </si>
-  <si>
-    <t>ARIMA Chain Ladder</t>
   </si>
   <si>
     <t>Expected Ult Loss</t>
@@ -56,9 +53,6 @@
   </si>
   <si>
     <t>Error in Chian Ladder</t>
-  </si>
-  <si>
-    <t>Error in ARIMA Chain Ladder</t>
   </si>
   <si>
     <t>Error in Expected Ult Loss</t>
@@ -449,16 +443,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Y32"/>
+  <dimension ref="A2:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="25" width="28.7109375" customWidth="1"/>
+    <col min="1" max="23" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,14 +522,8 @@
       <c r="W2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>1</v>
       </c>
@@ -543,76 +531,70 @@
         <v>337</v>
       </c>
       <c r="C3">
-        <v>6059.233560775509</v>
-      </c>
-      <c r="D3">
-        <v>6030.437784247971</v>
+        <v>6073.708984220479</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>4274.061647464648</v>
       </c>
       <c r="G3">
-        <v>4323.892742049211</v>
+        <v>6095.638250455681</v>
       </c>
       <c r="H3">
-        <v>6095.638250455681</v>
+        <v>11523.42857142857</v>
       </c>
       <c r="I3">
-        <v>11523.42857142857</v>
+        <v>6031</v>
       </c>
       <c r="J3">
-        <v>6031</v>
+        <v>13295.50577777778</v>
       </c>
       <c r="K3">
-        <v>13231.97269264069</v>
+        <v>-41740.67730407364</v>
       </c>
       <c r="L3">
-        <v>102865.8826441967</v>
+        <v>5790.877261423028</v>
       </c>
       <c r="M3">
-        <v>5790.877261423028</v>
-      </c>
-      <c r="N3">
-        <v>28.23356077550852</v>
-      </c>
-      <c r="O3">
-        <v>-0.5622157520292603</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>25</v>
+        <v>42.70898422047867</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3">
+        <v>-1756.938352535352</v>
+      </c>
+      <c r="Q3">
+        <v>64.63825045568137</v>
       </c>
       <c r="R3">
-        <v>-1707.107257950789</v>
+        <v>5492.428571428572</v>
       </c>
       <c r="S3">
-        <v>64.63825045568137</v>
+        <v>7264.505777777777</v>
       </c>
       <c r="T3">
-        <v>5492.428571428572</v>
+        <v>-47771.67730407364</v>
       </c>
       <c r="U3">
-        <v>7200.972692640691</v>
-      </c>
-      <c r="V3">
-        <v>96834.88264419665</v>
-      </c>
-      <c r="W3">
         <v>-240.1227385769716</v>
       </c>
-      <c r="X3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="V3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>1</v>
       </c>
@@ -620,76 +602,70 @@
         <v>353</v>
       </c>
       <c r="C4">
-        <v>39219.62039791094</v>
-      </c>
-      <c r="D4">
-        <v>38202.09052983595</v>
+        <v>39315.83205277855</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>39457.63862383258</v>
       </c>
       <c r="G4">
-        <v>39525.14041076983</v>
+        <v>39053.63390082736</v>
       </c>
       <c r="H4">
-        <v>39053.63390082736</v>
+        <v>73290.77142857145</v>
       </c>
       <c r="I4">
-        <v>73290.77142857145</v>
+        <v>40000</v>
       </c>
       <c r="J4">
-        <v>40000</v>
+        <v>77407.95027186147</v>
       </c>
       <c r="K4">
-        <v>78113.81978528139</v>
+        <v>51320.05761412698</v>
       </c>
       <c r="L4">
-        <v>-102845447.0365082</v>
+        <v>61640.15915557221</v>
       </c>
       <c r="M4">
-        <v>61640.15915557221</v>
-      </c>
-      <c r="N4">
-        <v>-780.3796020890586</v>
-      </c>
-      <c r="O4">
-        <v>-1797.90947016405</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>25</v>
+        <v>-684.1679472214528</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4">
+        <v>-542.3613761674205</v>
+      </c>
+      <c r="Q4">
+        <v>-946.3660991726429</v>
       </c>
       <c r="R4">
-        <v>-474.8595892301746</v>
+        <v>33290.77142857145</v>
       </c>
       <c r="S4">
-        <v>-946.3660991726429</v>
+        <v>37407.95027186147</v>
       </c>
       <c r="T4">
-        <v>33290.77142857145</v>
+        <v>11320.05761412698</v>
       </c>
       <c r="U4">
-        <v>38113.81978528139</v>
-      </c>
-      <c r="V4">
-        <v>-102885447.0365082</v>
-      </c>
-      <c r="W4">
         <v>21640.15915557221</v>
       </c>
-      <c r="X4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="V4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>1</v>
       </c>
@@ -697,76 +673,70 @@
         <v>388</v>
       </c>
       <c r="C5">
-        <v>735446.3964338399</v>
-      </c>
-      <c r="D5">
-        <v>732521.8297089591</v>
+        <v>732967.7526343801</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>709560.0379862479</v>
       </c>
       <c r="G5">
-        <v>710223.2688251421</v>
+        <v>700561.231265499</v>
       </c>
       <c r="H5">
-        <v>700561.231265499</v>
+        <v>1255771.057142857</v>
       </c>
       <c r="I5">
-        <v>1255771.057142857</v>
+        <v>745997</v>
       </c>
       <c r="J5">
-        <v>745997</v>
+        <v>1317845.865798557</v>
       </c>
       <c r="K5">
-        <v>1335236.221874747</v>
+        <v>4721967504176.555</v>
       </c>
       <c r="L5">
-        <v>-3490870.314543089</v>
+        <v>1082067.047705879</v>
       </c>
       <c r="M5">
-        <v>1082067.047705879</v>
-      </c>
-      <c r="N5">
-        <v>-10550.60356616008</v>
-      </c>
-      <c r="O5">
-        <v>-13475.17029104091</v>
-      </c>
-      <c r="P5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>25</v>
+        <v>-13029.24736561987</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5">
+        <v>-36436.96201375208</v>
+      </c>
+      <c r="Q5">
+        <v>-45435.76873450098</v>
       </c>
       <c r="R5">
-        <v>-35773.73117485794</v>
+        <v>509774.0571428575</v>
       </c>
       <c r="S5">
-        <v>-45435.76873450098</v>
+        <v>571848.8657985572</v>
       </c>
       <c r="T5">
-        <v>509774.0571428575</v>
+        <v>4721966758179.555</v>
       </c>
       <c r="U5">
-        <v>589239.2218747474</v>
-      </c>
-      <c r="V5">
-        <v>-4236867.314543089</v>
-      </c>
-      <c r="W5">
         <v>336070.0477058794</v>
       </c>
-      <c r="X5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="V5" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>1</v>
       </c>
@@ -774,76 +744,70 @@
         <v>620</v>
       </c>
       <c r="C6">
-        <v>399749.397402718</v>
-      </c>
-      <c r="D6">
-        <v>386641.3045840141</v>
+        <v>402842.8340468655</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>366004.7680907102</v>
       </c>
       <c r="G6">
-        <v>368068.543911654</v>
+        <v>394824.4223330772</v>
       </c>
       <c r="H6">
-        <v>394824.4223330772</v>
+        <v>703898.1142857143</v>
       </c>
       <c r="I6">
-        <v>703898.1142857143</v>
+        <v>388485</v>
       </c>
       <c r="J6">
-        <v>388485</v>
+        <v>715887.1157402599</v>
       </c>
       <c r="K6">
-        <v>724434.5635116884</v>
+        <v>-11733706274062.78</v>
       </c>
       <c r="L6">
-        <v>435089.587938075</v>
+        <v>663414.02441759</v>
       </c>
       <c r="M6">
-        <v>663414.02441759</v>
-      </c>
-      <c r="N6">
-        <v>11264.39740271802</v>
-      </c>
-      <c r="O6">
-        <v>-1843.695415985945</v>
-      </c>
-      <c r="P6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>25</v>
+        <v>14357.83404686546</v>
+      </c>
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6">
+        <v>-22480.23190928984</v>
+      </c>
+      <c r="Q6">
+        <v>6339.422333077178</v>
       </c>
       <c r="R6">
-        <v>-20416.45608834596</v>
+        <v>315413.1142857143</v>
       </c>
       <c r="S6">
-        <v>6339.422333077178</v>
+        <v>327402.1157402599</v>
       </c>
       <c r="T6">
-        <v>315413.1142857143</v>
+        <v>-11733706662547.78</v>
       </c>
       <c r="U6">
-        <v>335949.5635116884</v>
-      </c>
-      <c r="V6">
-        <v>46604.58793807501</v>
-      </c>
-      <c r="W6">
         <v>274929.02441759</v>
       </c>
-      <c r="X6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="V6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>1</v>
       </c>
@@ -851,70 +815,64 @@
         <v>715</v>
       </c>
       <c r="C7">
-        <v>111538.7192986037</v>
-      </c>
-      <c r="D7">
-        <v>106020.4926053893</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
+        <v>114780.3112415721</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>111508.9058281696</v>
       </c>
       <c r="G7">
-        <v>109570.2551544573</v>
+        <v>112591.3687774238</v>
       </c>
       <c r="H7">
-        <v>112591.3687774238</v>
+        <v>190464.1428571429</v>
       </c>
       <c r="I7">
-        <v>190464.1428571429</v>
+        <v>107590</v>
       </c>
       <c r="J7">
-        <v>107590</v>
+        <v>197075.4563636364</v>
       </c>
       <c r="K7">
-        <v>195764.3441154402</v>
+        <v>1515377605307.401</v>
       </c>
       <c r="L7">
-        <v>-177289.2349471252</v>
+        <v>191768.9105144383</v>
       </c>
       <c r="M7">
-        <v>191768.9105144383</v>
-      </c>
-      <c r="N7">
-        <v>3948.719298603683</v>
-      </c>
-      <c r="O7">
-        <v>-1569.50739461073</v>
-      </c>
-      <c r="P7" t="s">
-        <v>25</v>
+        <v>7190.311241572097</v>
+      </c>
+      <c r="N7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7">
+        <v>3918.905828169649</v>
+      </c>
+      <c r="Q7">
+        <v>5001.368777423762</v>
       </c>
       <c r="R7">
-        <v>1980.255154457278</v>
+        <v>82874.1428571429</v>
       </c>
       <c r="S7">
-        <v>5001.368777423762</v>
+        <v>89485.45636363642</v>
       </c>
       <c r="T7">
-        <v>82874.1428571429</v>
+        <v>1515377497717.401</v>
       </c>
       <c r="U7">
-        <v>88174.34411544015</v>
-      </c>
-      <c r="V7">
-        <v>-284879.2349471252</v>
-      </c>
-      <c r="W7">
         <v>84178.91051443832</v>
       </c>
-      <c r="X7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="V7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>2</v>
       </c>
@@ -922,76 +880,70 @@
         <v>669</v>
       </c>
       <c r="C8">
-        <v>940860.6636291275</v>
+        <v>961813.5618651917</v>
       </c>
       <c r="D8">
-        <v>890244.5767005027</v>
+        <v>969196.1175622335</v>
       </c>
       <c r="E8">
-        <v>948411.8059936814</v>
+        <v>942896.0152445153</v>
       </c>
       <c r="F8">
-        <v>922930.6629530857</v>
+        <v>865477.8467419705</v>
       </c>
       <c r="G8">
-        <v>868032.9040176359</v>
+        <v>932595.3692125739</v>
       </c>
       <c r="H8">
-        <v>932595.3692125739</v>
+        <v>1636938.485714286</v>
       </c>
       <c r="I8">
-        <v>1636938.485714286</v>
+        <v>869988</v>
       </c>
       <c r="J8">
-        <v>869988</v>
+        <v>1727242.997818182</v>
       </c>
       <c r="K8">
-        <v>1697480.494722078</v>
+        <v>2597977.762049526</v>
       </c>
       <c r="L8">
-        <v>585263.8946990359</v>
+        <v>1452533.164045023</v>
       </c>
       <c r="M8">
-        <v>1452533.164045023</v>
+        <v>91825.56186519167</v>
       </c>
       <c r="N8">
-        <v>70872.66362912755</v>
+        <v>99208.11756223347</v>
       </c>
       <c r="O8">
-        <v>20256.57670050266</v>
+        <v>72908.01524451526</v>
       </c>
       <c r="P8">
-        <v>78423.80599368142</v>
+        <v>-4510.153258029488</v>
       </c>
       <c r="Q8">
-        <v>52942.66295308573</v>
+        <v>62607.36921257386</v>
       </c>
       <c r="R8">
-        <v>-1955.095982364146</v>
+        <v>766950.4857142856</v>
       </c>
       <c r="S8">
-        <v>62607.36921257386</v>
+        <v>857254.9978181815</v>
       </c>
       <c r="T8">
-        <v>766950.4857142856</v>
+        <v>1727989.762049526</v>
       </c>
       <c r="U8">
-        <v>827492.4947220779</v>
-      </c>
-      <c r="V8">
-        <v>-284724.1053009641</v>
-      </c>
-      <c r="W8">
         <v>582545.1640450226</v>
       </c>
-      <c r="X8" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="V8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>2</v>
       </c>
@@ -999,76 +951,70 @@
         <v>7854</v>
       </c>
       <c r="C9">
-        <v>138774.2046128136</v>
+        <v>138994.1758897895</v>
       </c>
       <c r="D9">
-        <v>123281.5983606844</v>
+        <v>140438.3265159649</v>
       </c>
       <c r="E9">
-        <v>140300.1930344869</v>
+        <v>137136.8663231347</v>
       </c>
       <c r="F9">
-        <v>138348.4607583652</v>
+        <v>146330.5539515488</v>
       </c>
       <c r="G9">
-        <v>149470.8859615307</v>
+        <v>126151.3839873239</v>
       </c>
       <c r="H9">
-        <v>126151.3839873239</v>
+        <v>216651.4000000001</v>
       </c>
       <c r="I9">
-        <v>216651.4000000001</v>
+        <v>142241</v>
       </c>
       <c r="J9">
-        <v>142241</v>
+        <v>215785.4266989899</v>
       </c>
       <c r="K9">
-        <v>216214.2138666667</v>
+        <v>5848438.895985557</v>
       </c>
       <c r="L9">
-        <v>-2039705.743411246</v>
+        <v>225789.1272069262</v>
       </c>
       <c r="M9">
-        <v>225789.1272069262</v>
+        <v>-3246.824110210495</v>
       </c>
       <c r="N9">
-        <v>-3466.79538718643</v>
+        <v>-1802.673484035098</v>
       </c>
       <c r="O9">
-        <v>-18959.40163931562</v>
+        <v>-5104.133676865313</v>
       </c>
       <c r="P9">
-        <v>-1940.806965513068</v>
+        <v>4089.553951548762</v>
       </c>
       <c r="Q9">
-        <v>-3892.539241634833</v>
+        <v>-16089.61601267614</v>
       </c>
       <c r="R9">
-        <v>7229.885961530672</v>
+        <v>74410.40000000008</v>
       </c>
       <c r="S9">
-        <v>-16089.61601267614</v>
+        <v>73544.42669898993</v>
       </c>
       <c r="T9">
-        <v>74410.40000000008</v>
+        <v>5706197.895985557</v>
       </c>
       <c r="U9">
-        <v>73973.21386666675</v>
-      </c>
-      <c r="V9">
-        <v>-2181946.743411246</v>
-      </c>
-      <c r="W9">
         <v>83548.1272069262</v>
       </c>
-      <c r="X9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" t="s">
+      <c r="V9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="W9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1076,76 +1022,70 @@
         <v>32514</v>
       </c>
       <c r="C10">
-        <v>50985.22978987958</v>
+        <v>50191.63306558935</v>
       </c>
       <c r="D10">
-        <v>79479.9857740633</v>
+        <v>49712.81252758281</v>
       </c>
       <c r="E10">
-        <v>50478.70719283602</v>
+        <v>44403.09679547347</v>
       </c>
       <c r="F10">
-        <v>45025.92713160925</v>
+        <v>36330.90240167284</v>
       </c>
       <c r="G10">
-        <v>37064.66058332623</v>
+        <v>45701.25147574431</v>
       </c>
       <c r="H10">
-        <v>45701.25147574431</v>
+        <v>59240.34285714287</v>
       </c>
       <c r="I10">
-        <v>59240.34285714287</v>
+        <v>34031</v>
       </c>
       <c r="J10">
-        <v>34031</v>
+        <v>61471.42015353534</v>
       </c>
       <c r="K10">
-        <v>61059.32056219337</v>
+        <v>-188839314.1556992</v>
       </c>
       <c r="L10">
-        <v>24979768.53007099</v>
+        <v>65958.66983428622</v>
       </c>
       <c r="M10">
-        <v>65958.66983428622</v>
+        <v>16160.63306558935</v>
       </c>
       <c r="N10">
-        <v>16954.22978987958</v>
+        <v>15681.81252758281</v>
       </c>
       <c r="O10">
-        <v>45448.9857740633</v>
+        <v>10372.09679547347</v>
       </c>
       <c r="P10">
-        <v>16447.70719283602</v>
+        <v>2299.902401672844</v>
       </c>
       <c r="Q10">
-        <v>10994.92713160925</v>
+        <v>11670.25147574431</v>
       </c>
       <c r="R10">
-        <v>3033.660583326229</v>
+        <v>25209.34285714287</v>
       </c>
       <c r="S10">
-        <v>11670.25147574431</v>
+        <v>27440.42015353534</v>
       </c>
       <c r="T10">
-        <v>25209.34285714287</v>
+        <v>-188873345.1556992</v>
       </c>
       <c r="U10">
-        <v>27028.32056219337</v>
-      </c>
-      <c r="V10">
-        <v>24945737.53007099</v>
-      </c>
-      <c r="W10">
         <v>31927.66983428622</v>
       </c>
-      <c r="X10" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="V10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1153,76 +1093,70 @@
         <v>33049</v>
       </c>
       <c r="C11">
-        <v>401669.9000901781</v>
+        <v>382770.6324352786</v>
       </c>
       <c r="D11">
-        <v>415738.1115710946</v>
+        <v>387319.4473413661</v>
       </c>
       <c r="E11">
-        <v>406668.6052966779</v>
+        <v>373766.4876956174</v>
       </c>
       <c r="F11">
-        <v>390997.9345376581</v>
+        <v>395405.7479205462</v>
       </c>
       <c r="G11">
-        <v>414499.0956847342</v>
+        <v>339229.0224133163</v>
       </c>
       <c r="H11">
-        <v>339229.0224133163</v>
+        <v>505198.7714285714</v>
       </c>
       <c r="I11">
-        <v>505198.7714285714</v>
+        <v>372694</v>
       </c>
       <c r="J11">
-        <v>372694</v>
+        <v>514909.7052779222</v>
       </c>
       <c r="K11">
-        <v>506314.1219290044</v>
+        <v>38726419.69858279</v>
       </c>
       <c r="L11">
-        <v>-703265032.0198082</v>
+        <v>518084.3729244018</v>
       </c>
       <c r="M11">
-        <v>518084.3729244018</v>
+        <v>10076.63243527862</v>
       </c>
       <c r="N11">
-        <v>28975.90009017807</v>
+        <v>14625.44734136615</v>
       </c>
       <c r="O11">
-        <v>43044.1115710946</v>
+        <v>1072.487695617368</v>
       </c>
       <c r="P11">
-        <v>33974.60529667791</v>
+        <v>22711.74792054616</v>
       </c>
       <c r="Q11">
-        <v>18303.93453765812</v>
+        <v>-33464.9775866837</v>
       </c>
       <c r="R11">
-        <v>41805.09568473417</v>
+        <v>132504.7714285714</v>
       </c>
       <c r="S11">
-        <v>-33464.9775866837</v>
+        <v>142215.7052779222</v>
       </c>
       <c r="T11">
-        <v>132504.7714285714</v>
+        <v>38353725.69858279</v>
       </c>
       <c r="U11">
-        <v>133620.1219290044</v>
-      </c>
-      <c r="V11">
-        <v>-703637726.0198082</v>
-      </c>
-      <c r="W11">
         <v>145390.3729244018</v>
       </c>
-      <c r="X11" t="s">
+      <c r="V11" t="s">
         <v>2</v>
       </c>
-      <c r="Y11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="W11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1230,76 +1164,70 @@
         <v>33111</v>
       </c>
       <c r="C12">
-        <v>98637.79708331238</v>
+        <v>99341.03783278679</v>
       </c>
       <c r="D12">
-        <v>121824.4033571013</v>
+        <v>101000.691428744</v>
       </c>
       <c r="E12">
-        <v>100282.9362627493</v>
+        <v>99182.66033009456</v>
       </c>
       <c r="F12">
-        <v>98552.7136703357</v>
+        <v>105036.5427288956</v>
       </c>
       <c r="G12">
-        <v>135874.4094036616</v>
+        <v>77568.27133480526</v>
       </c>
       <c r="H12">
-        <v>77568.27133480526</v>
+        <v>155899.8</v>
       </c>
       <c r="I12">
-        <v>155899.8</v>
+        <v>107447</v>
       </c>
       <c r="J12">
-        <v>107447</v>
+        <v>154531.575830303</v>
       </c>
       <c r="K12">
-        <v>158293.976630303</v>
+        <v>-5019051.653187694</v>
       </c>
       <c r="L12">
-        <v>29827684.2500508</v>
+        <v>172139.4048521542</v>
       </c>
       <c r="M12">
-        <v>172139.4048521542</v>
+        <v>-8105.962167213205</v>
       </c>
       <c r="N12">
-        <v>-8809.202916687616</v>
+        <v>-6446.308571255999</v>
       </c>
       <c r="O12">
-        <v>14377.40335710128</v>
+        <v>-8264.339669905443</v>
       </c>
       <c r="P12">
-        <v>-7164.063737250661</v>
+        <v>-2410.457271104358</v>
       </c>
       <c r="Q12">
-        <v>-8894.286329664305</v>
+        <v>-29878.72866519474</v>
       </c>
       <c r="R12">
-        <v>28427.40940366164</v>
+        <v>48452.79999999999</v>
       </c>
       <c r="S12">
-        <v>-29878.72866519474</v>
+        <v>47084.57583030305</v>
       </c>
       <c r="T12">
-        <v>48452.79999999999</v>
+        <v>-5126498.653187694</v>
       </c>
       <c r="U12">
-        <v>50846.97663030305</v>
-      </c>
-      <c r="V12">
-        <v>29720237.2500508</v>
-      </c>
-      <c r="W12">
         <v>64692.4048521542</v>
       </c>
-      <c r="X12" t="s">
+      <c r="V12" t="s">
         <v>2</v>
       </c>
-      <c r="Y12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="W12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1307,76 +1235,70 @@
         <v>460</v>
       </c>
       <c r="C13">
-        <v>2605.544662443313</v>
-      </c>
-      <c r="D13">
-        <v>2631.252098531716</v>
+        <v>2551.902387471349</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>3432.570153320603</v>
       </c>
       <c r="G13">
-        <v>3473.74104924452</v>
+        <v>2841.986084614196</v>
       </c>
       <c r="H13">
-        <v>2841.986084614196</v>
+        <v>5195.97142857143</v>
       </c>
       <c r="I13">
-        <v>5195.97142857143</v>
+        <v>3074</v>
       </c>
       <c r="J13">
-        <v>3074</v>
+        <v>5215.111956132757</v>
       </c>
       <c r="K13">
-        <v>5289.292060028861</v>
+        <v>13697.64250235667</v>
       </c>
       <c r="L13">
-        <v>-540136.6589543291</v>
+        <v>4816.772018028531</v>
       </c>
       <c r="M13">
-        <v>4816.772018028531</v>
-      </c>
-      <c r="N13">
-        <v>-468.455337556687</v>
-      </c>
-      <c r="O13">
-        <v>-442.747901468284</v>
-      </c>
-      <c r="P13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>25</v>
+        <v>-522.0976125286511</v>
+      </c>
+      <c r="N13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13">
+        <v>358.5701533206034</v>
+      </c>
+      <c r="Q13">
+        <v>-232.013915385804</v>
       </c>
       <c r="R13">
-        <v>399.7410492445201</v>
+        <v>2121.97142857143</v>
       </c>
       <c r="S13">
-        <v>-232.013915385804</v>
+        <v>2141.111956132757</v>
       </c>
       <c r="T13">
-        <v>2121.97142857143</v>
+        <v>10623.64250235667</v>
       </c>
       <c r="U13">
-        <v>2215.292060028861</v>
-      </c>
-      <c r="V13">
-        <v>-543210.6589543291</v>
-      </c>
-      <c r="W13">
         <v>1742.772018028531</v>
       </c>
-      <c r="X13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="V13" t="s">
+        <v>6</v>
+      </c>
+      <c r="W13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1384,76 +1306,70 @@
         <v>620</v>
       </c>
       <c r="C14">
-        <v>428877.7019984345</v>
-      </c>
-      <c r="D14">
-        <v>428013.2193058075</v>
+        <v>420111.9843983349</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>432093.244066578</v>
       </c>
       <c r="G14">
-        <v>433572.0631256205</v>
+        <v>410075.7112293274</v>
       </c>
       <c r="H14">
-        <v>410075.7112293274</v>
+        <v>664279.9714285716</v>
       </c>
       <c r="I14">
-        <v>664279.9714285716</v>
+        <v>439839</v>
       </c>
       <c r="J14">
-        <v>439839</v>
+        <v>690624.0484640694</v>
       </c>
       <c r="K14">
-        <v>685194.1177212122</v>
+        <v>3559303.423212974</v>
       </c>
       <c r="L14">
-        <v>774481.6061774108</v>
+        <v>666207.7627066283</v>
       </c>
       <c r="M14">
-        <v>666207.7627066283</v>
-      </c>
-      <c r="N14">
-        <v>-10961.2980015655</v>
-      </c>
-      <c r="O14">
-        <v>-11825.78069419245</v>
-      </c>
-      <c r="P14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>25</v>
+        <v>-19727.01560166507</v>
+      </c>
+      <c r="N14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14">
+        <v>-7745.755933422013</v>
+      </c>
+      <c r="Q14">
+        <v>-29763.28877067263</v>
       </c>
       <c r="R14">
-        <v>-6266.936874379462</v>
+        <v>224440.9714285716</v>
       </c>
       <c r="S14">
-        <v>-29763.28877067263</v>
+        <v>250785.0484640694</v>
       </c>
       <c r="T14">
-        <v>224440.9714285716</v>
+        <v>3119464.423212974</v>
       </c>
       <c r="U14">
-        <v>245355.1177212122</v>
-      </c>
-      <c r="V14">
-        <v>334642.6061774108</v>
-      </c>
-      <c r="W14">
         <v>226368.7627066283</v>
       </c>
-      <c r="X14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="V14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1461,76 +1377,70 @@
         <v>671</v>
       </c>
       <c r="C15">
-        <v>7112.528898483153</v>
-      </c>
-      <c r="D15">
-        <v>6209.867345512016</v>
+        <v>7272.805940088378</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>5998.975779177752</v>
       </c>
       <c r="G15">
-        <v>6065.718257032523</v>
+        <v>5260.973702771732</v>
       </c>
       <c r="H15">
-        <v>5260.973702771732</v>
+        <v>10345</v>
       </c>
       <c r="I15">
-        <v>10345</v>
+        <v>6072</v>
       </c>
       <c r="J15">
-        <v>6072</v>
+        <v>10812.31284848485</v>
       </c>
       <c r="K15">
-        <v>10538.07624242424</v>
+        <v>-4527531392.377957</v>
       </c>
       <c r="L15">
-        <v>-1827758995.98024</v>
+        <v>9935.850778663387</v>
       </c>
       <c r="M15">
-        <v>9935.850778663387</v>
-      </c>
-      <c r="N15">
-        <v>1040.528898483153</v>
-      </c>
-      <c r="O15">
-        <v>137.8673455120161</v>
-      </c>
-      <c r="P15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>25</v>
+        <v>1200.805940088378</v>
+      </c>
+      <c r="N15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15">
+        <v>-73.02422082224803</v>
+      </c>
+      <c r="Q15">
+        <v>-811.026297228268</v>
       </c>
       <c r="R15">
-        <v>-6.28174296747693</v>
+        <v>4273.000000000004</v>
       </c>
       <c r="S15">
-        <v>-811.026297228268</v>
+        <v>4740.312848484849</v>
       </c>
       <c r="T15">
-        <v>4273.000000000004</v>
+        <v>-4527537464.377957</v>
       </c>
       <c r="U15">
-        <v>4466.076242424242</v>
-      </c>
-      <c r="V15">
-        <v>-1827765067.98024</v>
-      </c>
-      <c r="W15">
         <v>3863.850778663387</v>
       </c>
-      <c r="X15" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="V15" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1538,76 +1448,70 @@
         <v>683</v>
       </c>
       <c r="C16">
-        <v>14925.84058655289</v>
-      </c>
-      <c r="D16">
-        <v>14592.17359067578</v>
+        <v>14968.49775822348</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <v>18659.43595539747</v>
       </c>
       <c r="G16">
-        <v>18639.385656537</v>
+        <v>13284.72220109155</v>
       </c>
       <c r="H16">
-        <v>13284.72220109155</v>
+        <v>24870.11428571428</v>
       </c>
       <c r="I16">
-        <v>24870.11428571428</v>
+        <v>16266</v>
       </c>
       <c r="J16">
-        <v>16266</v>
+        <v>25779.60244733045</v>
       </c>
       <c r="K16">
-        <v>25488.66067994228</v>
+        <v>-28066.98548934458</v>
       </c>
       <c r="L16">
-        <v>-2652952.342992161</v>
+        <v>24033.14062247772</v>
       </c>
       <c r="M16">
-        <v>24033.14062247772</v>
-      </c>
-      <c r="N16">
-        <v>-1340.159413447112</v>
-      </c>
-      <c r="O16">
-        <v>-1673.82640932422</v>
-      </c>
-      <c r="P16" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>25</v>
+        <v>-1297.502241776516</v>
+      </c>
+      <c r="N16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16">
+        <v>2393.435955397468</v>
+      </c>
+      <c r="Q16">
+        <v>-2981.277798908448</v>
       </c>
       <c r="R16">
-        <v>2373.385656537001</v>
+        <v>8604.114285714284</v>
       </c>
       <c r="S16">
-        <v>-2981.277798908448</v>
+        <v>9513.60244733045</v>
       </c>
       <c r="T16">
-        <v>8604.114285714284</v>
+        <v>-44332.98548934459</v>
       </c>
       <c r="U16">
-        <v>9222.660679942284</v>
-      </c>
-      <c r="V16">
-        <v>-2669218.342992161</v>
-      </c>
-      <c r="W16">
         <v>7767.140622477717</v>
       </c>
-      <c r="X16" t="s">
+      <c r="V16" t="s">
         <v>2</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="W16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1615,76 +1519,70 @@
         <v>715</v>
       </c>
       <c r="C17">
-        <v>74866.67287648756</v>
-      </c>
-      <c r="D17">
-        <v>81539.56966632088</v>
+        <v>64533.00778217515</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <v>73049.66350511083</v>
       </c>
       <c r="G17">
-        <v>73193.56990742908</v>
+        <v>62763.85599696911</v>
       </c>
       <c r="H17">
-        <v>62763.85599696911</v>
+        <v>93057.3142857143</v>
       </c>
       <c r="I17">
-        <v>93057.3142857143</v>
+        <v>63524</v>
       </c>
       <c r="J17">
-        <v>63524</v>
+        <v>95408.91777777779</v>
       </c>
       <c r="K17">
-        <v>94720.42956536796</v>
+        <v>-18641.19044367548</v>
       </c>
       <c r="L17">
-        <v>-101308.1105247292</v>
+        <v>91808.95625086303</v>
       </c>
       <c r="M17">
-        <v>91808.95625086303</v>
-      </c>
-      <c r="N17">
-        <v>11342.67287648756</v>
-      </c>
-      <c r="O17">
-        <v>18015.56966632088</v>
-      </c>
-      <c r="P17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>25</v>
+        <v>1009.007782175147</v>
+      </c>
+      <c r="N17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17">
+        <v>9525.663505110831</v>
+      </c>
+      <c r="Q17">
+        <v>-760.1440030308877</v>
       </c>
       <c r="R17">
-        <v>9669.569907429075</v>
+        <v>29533.3142857143</v>
       </c>
       <c r="S17">
-        <v>-760.1440030308877</v>
+        <v>31884.91777777779</v>
       </c>
       <c r="T17">
-        <v>29533.3142857143</v>
+        <v>-82165.19044367548</v>
       </c>
       <c r="U17">
-        <v>31196.42956536796</v>
-      </c>
-      <c r="V17">
-        <v>-164832.1105247292</v>
-      </c>
-      <c r="W17">
         <v>28284.95625086303</v>
       </c>
-      <c r="X17" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="V17" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1692,76 +1590,70 @@
         <v>43</v>
       </c>
       <c r="C18">
-        <v>256951.7507297635</v>
+        <v>256839.0818593382</v>
       </c>
       <c r="D18">
-        <v>246142.2100340014</v>
+        <v>255786.0410525305</v>
       </c>
       <c r="E18">
-        <v>255920.4691400184</v>
+        <v>258758.3291332943</v>
       </c>
       <c r="F18">
-        <v>259173.4305102298</v>
+        <v>274865.0913852488</v>
       </c>
       <c r="G18">
-        <v>280882.9014181823</v>
+        <v>247513.4890277125</v>
       </c>
       <c r="H18">
-        <v>247513.4890277125</v>
+        <v>482682.2285714287</v>
       </c>
       <c r="I18">
-        <v>482682.2285714287</v>
+        <v>244929</v>
       </c>
       <c r="J18">
-        <v>244929</v>
+        <v>486621.3638764792</v>
       </c>
       <c r="K18">
-        <v>487138.5326891775</v>
+        <v>94576.48423105404</v>
       </c>
       <c r="L18">
-        <v>-9946193.236528713</v>
+        <v>473412.5354801852</v>
       </c>
       <c r="M18">
-        <v>473412.5354801852</v>
+        <v>11910.08185933816</v>
       </c>
       <c r="N18">
-        <v>12022.75072976347</v>
+        <v>10857.04105253055</v>
       </c>
       <c r="O18">
-        <v>1213.210034001444</v>
+        <v>13829.32913329426</v>
       </c>
       <c r="P18">
-        <v>10991.46914001839</v>
+        <v>29936.09138524882</v>
       </c>
       <c r="Q18">
-        <v>14244.43051022984</v>
+        <v>2584.489027712523</v>
       </c>
       <c r="R18">
-        <v>35953.9014181823</v>
+        <v>237753.2285714287</v>
       </c>
       <c r="S18">
-        <v>2584.489027712523</v>
+        <v>241692.3638764792</v>
       </c>
       <c r="T18">
-        <v>237753.2285714287</v>
+        <v>-150352.515768946</v>
       </c>
       <c r="U18">
-        <v>242209.5326891775</v>
-      </c>
-      <c r="V18">
-        <v>-10191122.23652871</v>
-      </c>
-      <c r="W18">
         <v>228483.5354801852</v>
       </c>
-      <c r="X18" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="V18" t="s">
+        <v>6</v>
+      </c>
+      <c r="W18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1769,76 +1661,70 @@
         <v>266</v>
       </c>
       <c r="C19">
-        <v>168611.8799009676</v>
+        <v>172198.0336740082</v>
       </c>
       <c r="D19">
-        <v>148535.7546184757</v>
+        <v>173675.6682945319</v>
       </c>
       <c r="E19">
-        <v>170273.3406459358</v>
+        <v>162366.4766996537</v>
       </c>
       <c r="F19">
-        <v>159091.3699984661</v>
+        <v>149268.6957275882</v>
       </c>
       <c r="G19">
-        <v>150073.5803654736</v>
+        <v>150758.5631279096</v>
       </c>
       <c r="H19">
-        <v>150758.5631279096</v>
+        <v>300954.9714285715</v>
       </c>
       <c r="I19">
-        <v>300954.9714285715</v>
+        <v>154785</v>
       </c>
       <c r="J19">
-        <v>154785</v>
+        <v>301590.6736277057</v>
       </c>
       <c r="K19">
-        <v>303521.3600842712</v>
+        <v>230517655.5615889</v>
       </c>
       <c r="L19">
-        <v>-808856.0684134982</v>
+        <v>297076.6629201624</v>
       </c>
       <c r="M19">
-        <v>297076.6629201624</v>
+        <v>17413.03367400818</v>
       </c>
       <c r="N19">
-        <v>13826.87990096756</v>
+        <v>18890.66829453193</v>
       </c>
       <c r="O19">
-        <v>-6249.245381524262</v>
+        <v>7581.476699653722</v>
       </c>
       <c r="P19">
-        <v>15488.34064593576</v>
+        <v>-5516.304272411799</v>
       </c>
       <c r="Q19">
-        <v>4306.369998466136</v>
+        <v>-4026.436872090417</v>
       </c>
       <c r="R19">
-        <v>-4711.419634526363</v>
+        <v>146169.9714285715</v>
       </c>
       <c r="S19">
-        <v>-4026.436872090417</v>
+        <v>146805.6736277057</v>
       </c>
       <c r="T19">
-        <v>146169.9714285715</v>
+        <v>230362870.5615889</v>
       </c>
       <c r="U19">
-        <v>148736.3600842712</v>
-      </c>
-      <c r="V19">
-        <v>-963641.0684134982</v>
-      </c>
-      <c r="W19">
         <v>142291.6629201624</v>
       </c>
-      <c r="X19" t="s">
+      <c r="V19" t="s">
+        <v>5</v>
+      </c>
+      <c r="W19" t="s">
         <v>6</v>
       </c>
-      <c r="Y19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1846,76 +1732,70 @@
         <v>353</v>
       </c>
       <c r="C20">
-        <v>129877.1785488919</v>
+        <v>129908.5016721032</v>
       </c>
       <c r="D20">
-        <v>128580.7755587338</v>
+        <v>308227.3163062403</v>
       </c>
       <c r="E20">
-        <v>308223.8230637885</v>
+        <v>133999.3739267664</v>
       </c>
       <c r="F20">
-        <v>134477.3799874546</v>
+        <v>129117.3335466908</v>
       </c>
       <c r="G20">
-        <v>128320.3312239184</v>
+        <v>129677.9072017749</v>
       </c>
       <c r="H20">
-        <v>129677.9072017749</v>
+        <v>250959.4571428571</v>
       </c>
       <c r="I20">
-        <v>250959.4571428571</v>
+        <v>125467</v>
       </c>
       <c r="J20">
-        <v>125467</v>
+        <v>274856.6737870129</v>
       </c>
       <c r="K20">
-        <v>268824.8576935065</v>
+        <v>237784.8031397957</v>
       </c>
       <c r="L20">
-        <v>-4256174.522808219</v>
+        <v>199358.2016130818</v>
       </c>
       <c r="M20">
-        <v>199358.2016130818</v>
+        <v>4441.501672103172</v>
       </c>
       <c r="N20">
-        <v>4410.178548891883</v>
+        <v>182760.3163062403</v>
       </c>
       <c r="O20">
-        <v>3113.775558733832</v>
+        <v>8532.373926766391</v>
       </c>
       <c r="P20">
-        <v>182756.8230637885</v>
+        <v>3650.333546690759</v>
       </c>
       <c r="Q20">
-        <v>9010.379987454566</v>
+        <v>4210.907201774928</v>
       </c>
       <c r="R20">
-        <v>2853.331223918445</v>
+        <v>125492.4571428571</v>
       </c>
       <c r="S20">
-        <v>4210.907201774928</v>
+        <v>149389.6737870129</v>
       </c>
       <c r="T20">
-        <v>125492.4571428571</v>
+        <v>112317.8031397957</v>
       </c>
       <c r="U20">
-        <v>143357.8576935065</v>
-      </c>
-      <c r="V20">
-        <v>-4381641.522808219</v>
-      </c>
-      <c r="W20">
         <v>73891.20161308179</v>
       </c>
-      <c r="X20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="V20" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1923,76 +1803,70 @@
         <v>388</v>
       </c>
       <c r="C21">
-        <v>1254792.86523249</v>
+        <v>1168166.052845839</v>
       </c>
       <c r="D21">
-        <v>1316952.76289344</v>
+        <v>2043104.635813865</v>
       </c>
       <c r="E21">
-        <v>2125247.005827731</v>
+        <v>1207510.975147505</v>
       </c>
       <c r="F21">
-        <v>1326834.815863709</v>
+        <v>889115.487200801</v>
       </c>
       <c r="G21">
-        <v>893402.1476210583</v>
+        <v>1140396.877935581</v>
       </c>
       <c r="H21">
-        <v>1140396.877935581</v>
+        <v>1862239.685714286</v>
       </c>
       <c r="I21">
-        <v>1862239.685714286</v>
+        <v>921525</v>
       </c>
       <c r="J21">
-        <v>921525</v>
+        <v>1912257.345479943</v>
       </c>
       <c r="K21">
-        <v>1914152.475203463</v>
+        <v>1972121.741549927</v>
       </c>
       <c r="L21">
-        <v>-20433302.62636525</v>
+        <v>1929770.355399661</v>
       </c>
       <c r="M21">
-        <v>1929770.355399661</v>
+        <v>246641.0528458394</v>
       </c>
       <c r="N21">
-        <v>333267.8652324902</v>
+        <v>1121579.635813865</v>
       </c>
       <c r="O21">
-        <v>395427.7628934397</v>
+        <v>285985.9751475048</v>
       </c>
       <c r="P21">
-        <v>1203722.005827731</v>
+        <v>-32409.51279919897</v>
       </c>
       <c r="Q21">
-        <v>405309.8158637087</v>
+        <v>218871.8779355807</v>
       </c>
       <c r="R21">
-        <v>-28122.85237894172</v>
+        <v>940714.6857142863</v>
       </c>
       <c r="S21">
-        <v>218871.8779355807</v>
+        <v>990732.3454799429</v>
       </c>
       <c r="T21">
-        <v>940714.6857142863</v>
+        <v>1050596.741549927</v>
       </c>
       <c r="U21">
-        <v>992627.4752034631</v>
-      </c>
-      <c r="V21">
-        <v>-21354827.62636525</v>
-      </c>
-      <c r="W21">
         <v>1008245.355399661</v>
       </c>
-      <c r="X21" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="V21" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>4</v>
       </c>
@@ -2000,76 +1874,70 @@
         <v>460</v>
       </c>
       <c r="C22">
-        <v>10131.78572818654</v>
+        <v>10313.27564647024</v>
       </c>
       <c r="D22">
-        <v>9533.106449132303</v>
+        <v>13968.60650939289</v>
       </c>
       <c r="E22">
-        <v>13798.39972968879</v>
+        <v>10162.53880497833</v>
       </c>
       <c r="F22">
-        <v>9997.808555865358</v>
+        <v>10822.31770370426</v>
       </c>
       <c r="G22">
-        <v>10663.55513339468</v>
+        <v>9970.17713197961</v>
       </c>
       <c r="H22">
-        <v>9970.17713197961</v>
+        <v>19696.14285714286</v>
       </c>
       <c r="I22">
-        <v>19696.14285714286</v>
+        <v>10723</v>
       </c>
       <c r="J22">
-        <v>10723</v>
+        <v>20078.70914285714</v>
       </c>
       <c r="K22">
-        <v>19851.20831168831</v>
+        <v>113952.2298921306</v>
       </c>
       <c r="L22">
-        <v>33246.9466142574</v>
+        <v>17855.45389528479</v>
       </c>
       <c r="M22">
-        <v>17855.45389528479</v>
+        <v>-409.7243535297566</v>
       </c>
       <c r="N22">
-        <v>-591.2142718134619</v>
+        <v>3245.60650939289</v>
       </c>
       <c r="O22">
-        <v>-1189.893550867697</v>
+        <v>-560.4611950216749</v>
       </c>
       <c r="P22">
-        <v>3075.399729688794</v>
+        <v>99.31770370425693</v>
       </c>
       <c r="Q22">
-        <v>-725.1914441346416</v>
+        <v>-752.8228680203902</v>
       </c>
       <c r="R22">
-        <v>-59.44486660532311</v>
+        <v>8973.142857142859</v>
       </c>
       <c r="S22">
-        <v>-752.8228680203902</v>
+        <v>9355.709142857144</v>
       </c>
       <c r="T22">
-        <v>8973.142857142859</v>
+        <v>103229.2298921306</v>
       </c>
       <c r="U22">
-        <v>9128.208311688311</v>
-      </c>
-      <c r="V22">
-        <v>22523.9466142574</v>
-      </c>
-      <c r="W22">
         <v>7132.453895284791</v>
       </c>
-      <c r="X22" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="V22" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2077,76 +1945,70 @@
         <v>78</v>
       </c>
       <c r="C23">
-        <v>178056.2206060686</v>
+        <v>179250.4377637038</v>
       </c>
       <c r="D23">
-        <v>176126.4036425943</v>
+        <v>179393.9840827237</v>
       </c>
       <c r="E23">
-        <v>178222.6734368386</v>
+        <v>179386.8965339494</v>
       </c>
       <c r="F23">
-        <v>178248.1488003247</v>
+        <v>191350.0078642983</v>
       </c>
       <c r="G23">
-        <v>192984.5166162107</v>
+        <v>179194.7367537638</v>
       </c>
       <c r="H23">
-        <v>179194.7367537638</v>
+        <v>317809.0857142858</v>
       </c>
       <c r="I23">
-        <v>317809.0857142858</v>
+        <v>180074</v>
       </c>
       <c r="J23">
-        <v>180074</v>
+        <v>342514.9229829726</v>
       </c>
       <c r="K23">
-        <v>340462.5920611833</v>
+        <v>233146.4312909764</v>
       </c>
       <c r="L23">
-        <v>520169.6116511957</v>
+        <v>234728.7517690418</v>
       </c>
       <c r="M23">
-        <v>234728.7517690418</v>
+        <v>-823.5622362961876</v>
       </c>
       <c r="N23">
-        <v>-2017.779393931356</v>
+        <v>-680.0159172762651</v>
       </c>
       <c r="O23">
-        <v>-3947.59635740568</v>
+        <v>-687.1034660505538</v>
       </c>
       <c r="P23">
-        <v>-1851.326563161419</v>
+        <v>11276.0078642983</v>
       </c>
       <c r="Q23">
-        <v>-1825.851199675264</v>
+        <v>-879.2632462362235</v>
       </c>
       <c r="R23">
-        <v>12910.51661621075</v>
+        <v>137735.0857142858</v>
       </c>
       <c r="S23">
-        <v>-879.2632462362235</v>
+        <v>162440.9229829726</v>
       </c>
       <c r="T23">
-        <v>137735.0857142858</v>
+        <v>53072.43129097641</v>
       </c>
       <c r="U23">
-        <v>160388.5920611833</v>
-      </c>
-      <c r="V23">
-        <v>340095.6116511957</v>
-      </c>
-      <c r="W23">
         <v>54654.75176904176</v>
       </c>
-      <c r="X23" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="V23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2154,76 +2016,70 @@
         <v>86</v>
       </c>
       <c r="C24">
-        <v>463927.9572114804</v>
+        <v>458655.6338139797</v>
       </c>
       <c r="D24">
-        <v>427589.7305193693</v>
+        <v>458346.5929232202</v>
       </c>
       <c r="E24">
-        <v>464000.5148593392</v>
+        <v>458410.2233457245</v>
       </c>
       <c r="F24">
-        <v>466221.0001116481</v>
+        <v>212419.9697326405</v>
       </c>
       <c r="G24">
-        <v>205914.448058863</v>
+        <v>337398.6741681198</v>
       </c>
       <c r="H24">
-        <v>337398.6741681198</v>
+        <v>540380.2285714286</v>
       </c>
       <c r="I24">
-        <v>540380.2285714286</v>
+        <v>236469</v>
       </c>
       <c r="J24">
-        <v>236469</v>
+        <v>559785.5006810966</v>
       </c>
       <c r="K24">
-        <v>560058.0710303031</v>
+        <v>-737336.9493892454</v>
       </c>
       <c r="L24">
-        <v>-4466730.59486029</v>
+        <v>587911.3277693468</v>
       </c>
       <c r="M24">
-        <v>587911.3277693468</v>
+        <v>222186.6338139797</v>
       </c>
       <c r="N24">
-        <v>227458.9572114804</v>
+        <v>221877.5929232202</v>
       </c>
       <c r="O24">
-        <v>191120.7305193693</v>
+        <v>221941.2233457245</v>
       </c>
       <c r="P24">
-        <v>227531.5148593392</v>
+        <v>-24049.03026735949</v>
       </c>
       <c r="Q24">
-        <v>229752.0001116481</v>
+        <v>100929.6741681198</v>
       </c>
       <c r="R24">
-        <v>-30554.55194113698</v>
+        <v>303911.2285714286</v>
       </c>
       <c r="S24">
-        <v>100929.6741681198</v>
+        <v>323316.5006810966</v>
       </c>
       <c r="T24">
-        <v>303911.2285714286</v>
+        <v>-973805.9493892454</v>
       </c>
       <c r="U24">
-        <v>323589.0710303031</v>
-      </c>
-      <c r="V24">
-        <v>-4703199.59486029</v>
-      </c>
-      <c r="W24">
         <v>351442.3277693468</v>
       </c>
-      <c r="X24" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="V24" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2231,76 +2087,70 @@
         <v>353</v>
       </c>
       <c r="C25">
-        <v>4072.702151983882</v>
+        <v>3958.017504016288</v>
       </c>
       <c r="D25">
-        <v>4279.412918686133</v>
+        <v>3978.902597689033</v>
       </c>
       <c r="E25">
-        <v>4090.974371736253</v>
+        <v>4014.764108637259</v>
       </c>
       <c r="F25">
-        <v>4113.424407479282</v>
+        <v>2769.022649397569</v>
       </c>
       <c r="G25">
-        <v>2743.377778962715</v>
+        <v>3333.15194229176</v>
       </c>
       <c r="H25">
-        <v>3333.15194229176</v>
+        <v>5496.914285714285</v>
       </c>
       <c r="I25">
-        <v>5496.914285714285</v>
+        <v>3401</v>
       </c>
       <c r="J25">
-        <v>3401</v>
+        <v>5617.515082251082</v>
       </c>
       <c r="K25">
-        <v>5570.918707070708</v>
+        <v>410790.6107551595</v>
       </c>
       <c r="L25">
-        <v>1293219.017648669</v>
+        <v>5183.391861131289</v>
       </c>
       <c r="M25">
-        <v>5183.391861131289</v>
+        <v>557.0175040162881</v>
       </c>
       <c r="N25">
-        <v>671.7021519838818</v>
+        <v>577.9025976890334</v>
       </c>
       <c r="O25">
-        <v>878.4129186861328</v>
+        <v>613.7641086372587</v>
       </c>
       <c r="P25">
-        <v>689.974371736253</v>
+        <v>-631.9773506024312</v>
       </c>
       <c r="Q25">
-        <v>712.4244074792823</v>
+        <v>-67.84805770824005</v>
       </c>
       <c r="R25">
-        <v>-657.6222210372853</v>
+        <v>2095.914285714285</v>
       </c>
       <c r="S25">
-        <v>-67.84805770824005</v>
+        <v>2216.515082251082</v>
       </c>
       <c r="T25">
-        <v>2095.914285714285</v>
+        <v>407389.6107551595</v>
       </c>
       <c r="U25">
-        <v>2169.918707070708</v>
-      </c>
-      <c r="V25">
-        <v>1289818.017648669</v>
-      </c>
-      <c r="W25">
         <v>1782.391861131289</v>
       </c>
-      <c r="X25" t="s">
+      <c r="V25" t="s">
+        <v>4</v>
+      </c>
+      <c r="W25" t="s">
         <v>6</v>
       </c>
-      <c r="Y25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>5</v>
       </c>
@@ -2308,76 +2158,70 @@
         <v>388</v>
       </c>
       <c r="C26">
-        <v>670383.2871061346</v>
+        <v>702358.9431433612</v>
       </c>
       <c r="D26">
-        <v>600204.5438980842</v>
+        <v>700047.6058504898</v>
       </c>
       <c r="E26">
-        <v>668838.1511072428</v>
+        <v>698380.0444594627</v>
       </c>
       <c r="F26">
-        <v>668492.3959359312</v>
+        <v>758161.984581771</v>
       </c>
       <c r="G26">
-        <v>792297.5071308118</v>
+        <v>615880.4377484843</v>
       </c>
       <c r="H26">
-        <v>615880.4377484843</v>
+        <v>810734.6285714286</v>
       </c>
       <c r="I26">
-        <v>810734.6285714286</v>
+        <v>750321</v>
       </c>
       <c r="J26">
-        <v>750321</v>
+        <v>813509.2609419913</v>
       </c>
       <c r="K26">
-        <v>811161.2725021647</v>
+        <v>-87801044534.37555</v>
       </c>
       <c r="L26">
-        <v>-574770223.9394352</v>
+        <v>930906.9770448962</v>
       </c>
       <c r="M26">
-        <v>930906.9770448962</v>
+        <v>-47962.05685663875</v>
       </c>
       <c r="N26">
-        <v>-79937.71289386542</v>
+        <v>-50273.39414951019</v>
       </c>
       <c r="O26">
-        <v>-150116.4561019158</v>
+        <v>-51940.95554053725</v>
       </c>
       <c r="P26">
-        <v>-81482.8488927572</v>
+        <v>7840.984581770957</v>
       </c>
       <c r="Q26">
-        <v>-81828.60406406876</v>
+        <v>-134440.5622515157</v>
       </c>
       <c r="R26">
-        <v>41976.50713081181</v>
+        <v>60413.62857142859</v>
       </c>
       <c r="S26">
-        <v>-134440.5622515157</v>
+        <v>63188.26094199135</v>
       </c>
       <c r="T26">
-        <v>60413.62857142859</v>
+        <v>-87801794855.37555</v>
       </c>
       <c r="U26">
-        <v>60840.27250216471</v>
-      </c>
-      <c r="V26">
-        <v>-575520544.9394352</v>
-      </c>
-      <c r="W26">
         <v>180585.9770448962</v>
       </c>
-      <c r="X26" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="V26" t="s">
+        <v>4</v>
+      </c>
+      <c r="W26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27">
         <v>5</v>
       </c>
@@ -2385,76 +2229,70 @@
         <v>620</v>
       </c>
       <c r="C27">
-        <v>34935.70133471842</v>
+        <v>35671.45549017545</v>
       </c>
       <c r="D27">
-        <v>34603.34738101879</v>
+        <v>35487.86920418391</v>
       </c>
       <c r="E27">
-        <v>34757.95331775006</v>
+        <v>34893.295839119</v>
       </c>
       <c r="F27">
-        <v>34155.8159870599</v>
+        <v>26923.60710382369</v>
       </c>
       <c r="G27">
-        <v>28207.97073795682</v>
+        <v>31786.56211250883</v>
       </c>
       <c r="H27">
-        <v>31786.56211250883</v>
+        <v>52743.82857142857</v>
       </c>
       <c r="I27">
-        <v>52743.82857142857</v>
+        <v>35334</v>
       </c>
       <c r="J27">
-        <v>35334</v>
+        <v>55400.19692698413</v>
       </c>
       <c r="K27">
-        <v>55726.79408600289</v>
+        <v>336951246.6177158</v>
       </c>
       <c r="L27">
-        <v>71206.09416563384</v>
+        <v>52809.11452702506</v>
       </c>
       <c r="M27">
-        <v>52809.11452702506</v>
+        <v>337.4554901754454</v>
       </c>
       <c r="N27">
-        <v>-398.2986652815816</v>
+        <v>153.8692041839095</v>
       </c>
       <c r="O27">
-        <v>-730.6526189812139</v>
+        <v>-440.7041608809959</v>
       </c>
       <c r="P27">
-        <v>-576.0466822499438</v>
+        <v>-8410.392896176312</v>
       </c>
       <c r="Q27">
-        <v>-1178.184012940095</v>
+        <v>-3547.437887491167</v>
       </c>
       <c r="R27">
-        <v>-7126.029262043183</v>
+        <v>17409.82857142857</v>
       </c>
       <c r="S27">
-        <v>-3547.437887491167</v>
+        <v>20066.19692698413</v>
       </c>
       <c r="T27">
-        <v>17409.82857142857</v>
+        <v>336915912.6177158</v>
       </c>
       <c r="U27">
-        <v>20392.79408600289</v>
-      </c>
-      <c r="V27">
-        <v>35872.09416563384</v>
-      </c>
-      <c r="W27">
         <v>17475.11452702506</v>
       </c>
-      <c r="X27" t="s">
+      <c r="V27" t="s">
+        <v>2</v>
+      </c>
+      <c r="W27" t="s">
         <v>3</v>
       </c>
-      <c r="Y27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>6</v>
       </c>
@@ -2462,76 +2300,70 @@
         <v>86</v>
       </c>
       <c r="C28">
-        <v>1785902.356782688</v>
+        <v>1761764.836145823</v>
       </c>
       <c r="D28">
-        <v>1795247.952584848</v>
+        <v>1754137.783419024</v>
       </c>
       <c r="E28">
-        <v>1779631.481111987</v>
+        <v>1748075.83233213</v>
       </c>
       <c r="F28">
-        <v>1771262.954048474</v>
+        <v>1727300.186959772</v>
       </c>
       <c r="G28">
-        <v>1718672.849947198</v>
+        <v>1758642.950097868</v>
       </c>
       <c r="H28">
-        <v>1758642.950097868</v>
+        <v>3300533.028571429</v>
       </c>
       <c r="I28">
-        <v>3300533.028571429</v>
+        <v>1611800</v>
       </c>
       <c r="J28">
-        <v>1611800</v>
+        <v>3645081.969464936</v>
       </c>
       <c r="K28">
-        <v>3637074.30192785</v>
+        <v>-408437410.8766826</v>
       </c>
       <c r="L28">
-        <v>485998348.1201957</v>
+        <v>1708619.701848727</v>
       </c>
       <c r="M28">
-        <v>1708619.701848727</v>
+        <v>149964.8361458229</v>
       </c>
       <c r="N28">
-        <v>174102.3567826881</v>
+        <v>142337.7834190244</v>
       </c>
       <c r="O28">
-        <v>183447.9525848478</v>
+        <v>136275.8323321298</v>
       </c>
       <c r="P28">
-        <v>167831.4811119868</v>
+        <v>115500.1869597719</v>
       </c>
       <c r="Q28">
-        <v>159462.9540484741</v>
+        <v>146842.9500978685</v>
       </c>
       <c r="R28">
-        <v>106872.8499471981</v>
+        <v>1688733.028571429</v>
       </c>
       <c r="S28">
-        <v>146842.9500978685</v>
+        <v>2033281.969464936</v>
       </c>
       <c r="T28">
-        <v>1688733.028571429</v>
+        <v>-410049210.8766826</v>
       </c>
       <c r="U28">
-        <v>2025274.30192785</v>
-      </c>
-      <c r="V28">
-        <v>484386548.1201957</v>
-      </c>
-      <c r="W28">
         <v>96819.70184872719</v>
       </c>
-      <c r="X28" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="V28" t="s">
+        <v>5</v>
+      </c>
+      <c r="W28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>6</v>
       </c>
@@ -2539,76 +2371,70 @@
         <v>337</v>
       </c>
       <c r="C29">
-        <v>587872.7817705229</v>
+        <v>588127.7982133235</v>
       </c>
       <c r="D29">
-        <v>577849.5994221924</v>
+        <v>1353550.063251106</v>
       </c>
       <c r="E29">
-        <v>1344714.018088454</v>
+        <v>748082.7604210817</v>
       </c>
       <c r="F29">
-        <v>745939.3903495427</v>
+        <v>598289.9358006234</v>
       </c>
       <c r="G29">
-        <v>590947.9418184805</v>
+        <v>585669.1945921538</v>
       </c>
       <c r="H29">
-        <v>585669.1945921538</v>
+        <v>1049868.571428572</v>
       </c>
       <c r="I29">
-        <v>1049868.571428572</v>
+        <v>589435</v>
       </c>
       <c r="J29">
-        <v>589435</v>
+        <v>1108489.247111111</v>
       </c>
       <c r="K29">
-        <v>1119561.969102453</v>
+        <v>-7990108497.884599</v>
       </c>
       <c r="L29">
-        <v>-11910932313100.85</v>
+        <v>875615.322619337</v>
       </c>
       <c r="M29">
-        <v>875615.322619337</v>
+        <v>-1307.201786676538</v>
       </c>
       <c r="N29">
-        <v>-1562.218229477061</v>
+        <v>764115.0632511058</v>
       </c>
       <c r="O29">
-        <v>-11585.40057780757</v>
+        <v>158647.7604210817</v>
       </c>
       <c r="P29">
-        <v>755279.0180884537</v>
+        <v>8854.935800623382</v>
       </c>
       <c r="Q29">
-        <v>156504.3903495427</v>
+        <v>-3765.80540784623</v>
       </c>
       <c r="R29">
-        <v>1512.941818480496</v>
+        <v>460433.5714285716</v>
       </c>
       <c r="S29">
-        <v>-3765.80540784623</v>
+        <v>519054.2471111112</v>
       </c>
       <c r="T29">
-        <v>460433.5714285716</v>
+        <v>-7990697932.884599</v>
       </c>
       <c r="U29">
-        <v>530126.9691024532</v>
-      </c>
-      <c r="V29">
-        <v>-11910932902535.85</v>
-      </c>
-      <c r="W29">
         <v>286180.322619337</v>
       </c>
-      <c r="X29" t="s">
+      <c r="V29" t="s">
         <v>2</v>
       </c>
-      <c r="Y29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="W29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>6</v>
       </c>
@@ -2616,76 +2442,70 @@
         <v>353</v>
       </c>
       <c r="C30">
-        <v>34817.58981135757</v>
+        <v>34901.09419715215</v>
       </c>
       <c r="D30">
-        <v>34364.41442748944</v>
+        <v>50284.93757389197</v>
       </c>
       <c r="E30">
-        <v>49730.3806580173</v>
+        <v>37169.89456503038</v>
       </c>
       <c r="F30">
-        <v>36887.11004203613</v>
+        <v>35617.17949792118</v>
       </c>
       <c r="G30">
-        <v>35475.89703848687</v>
+        <v>35240.59870608457</v>
       </c>
       <c r="H30">
-        <v>35240.59870608457</v>
+        <v>65285.4</v>
       </c>
       <c r="I30">
-        <v>65285.4</v>
+        <v>34687</v>
       </c>
       <c r="J30">
-        <v>34687</v>
+        <v>73901.35751919191</v>
       </c>
       <c r="K30">
-        <v>75666.51793131312</v>
+        <v>-2118684.238034325</v>
       </c>
       <c r="L30">
-        <v>-22678692.20872403</v>
+        <v>27995.43522356266</v>
       </c>
       <c r="M30">
-        <v>27995.43522356266</v>
+        <v>214.0941971521461</v>
       </c>
       <c r="N30">
-        <v>130.5898113575749</v>
+        <v>15597.93757389197</v>
       </c>
       <c r="O30">
-        <v>-322.5855725105575</v>
+        <v>2482.894565030379</v>
       </c>
       <c r="P30">
-        <v>15043.3806580173</v>
+        <v>930.1794979211845</v>
       </c>
       <c r="Q30">
-        <v>2200.110042036133</v>
+        <v>553.5987060845728</v>
       </c>
       <c r="R30">
-        <v>788.8970384868662</v>
+        <v>30598.4</v>
       </c>
       <c r="S30">
-        <v>553.5987060845728</v>
+        <v>39214.35751919191</v>
       </c>
       <c r="T30">
-        <v>30598.4</v>
+        <v>-2153371.238034325</v>
       </c>
       <c r="U30">
-        <v>40979.51793131312</v>
-      </c>
-      <c r="V30">
-        <v>-22713379.20872403</v>
-      </c>
-      <c r="W30">
         <v>-6691.564776437335</v>
       </c>
-      <c r="X30" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y30" t="s">
+      <c r="V30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="W30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2693,76 +2513,70 @@
         <v>388</v>
       </c>
       <c r="C31">
-        <v>1061625.482450756</v>
+        <v>1137472.905085959</v>
       </c>
       <c r="D31">
-        <v>942440.6679366492</v>
+        <v>3742939.047588427</v>
       </c>
       <c r="E31">
-        <v>3353680.241369842</v>
+        <v>1524212.480335869</v>
       </c>
       <c r="F31">
-        <v>1197912.979607322</v>
+        <v>1417780.031524998</v>
       </c>
       <c r="G31">
-        <v>1413093.007102302</v>
+        <v>1132973.26312785</v>
       </c>
       <c r="H31">
-        <v>1132973.26312785</v>
+        <v>2030040.514285714</v>
       </c>
       <c r="I31">
-        <v>2030040.514285714</v>
+        <v>1233553</v>
       </c>
       <c r="J31">
-        <v>1233553</v>
+        <v>2124959.253537662</v>
       </c>
       <c r="K31">
-        <v>2142099.732374026</v>
+        <v>-901504442235.4747</v>
       </c>
       <c r="L31">
-        <v>-2443289.880565776</v>
+        <v>1339670.947460046</v>
       </c>
       <c r="M31">
-        <v>1339670.947460046</v>
+        <v>-96080.09491404076</v>
       </c>
       <c r="N31">
-        <v>-171927.5175492445</v>
+        <v>2509386.047588427</v>
       </c>
       <c r="O31">
-        <v>-291112.3320633508</v>
+        <v>290659.4803358694</v>
       </c>
       <c r="P31">
-        <v>2120127.241369842</v>
+        <v>184227.0315249977</v>
       </c>
       <c r="Q31">
-        <v>-35640.02039267845</v>
+        <v>-100579.7368721496</v>
       </c>
       <c r="R31">
-        <v>179540.007102302</v>
+        <v>796487.5142857144</v>
       </c>
       <c r="S31">
-        <v>-100579.7368721496</v>
+        <v>891406.2535376623</v>
       </c>
       <c r="T31">
-        <v>796487.5142857144</v>
+        <v>-901505675788.4747</v>
       </c>
       <c r="U31">
-        <v>908546.732374026</v>
-      </c>
-      <c r="V31">
-        <v>-3676842.880565776</v>
-      </c>
-      <c r="W31">
         <v>106117.947460046</v>
       </c>
-      <c r="X31" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="V31" t="s">
+        <v>2</v>
+      </c>
+      <c r="W31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>6</v>
       </c>
@@ -2770,73 +2584,67 @@
         <v>671</v>
       </c>
       <c r="C32">
-        <v>97904.44043840999</v>
+        <v>97676.02240194799</v>
       </c>
       <c r="D32">
-        <v>96751.4172219044</v>
+        <v>241890.9755279968</v>
       </c>
       <c r="E32">
-        <v>242404.6903599317</v>
+        <v>120534.67028526</v>
       </c>
       <c r="F32">
-        <v>121273.8340173752</v>
+        <v>109550.4054969128</v>
       </c>
       <c r="G32">
-        <v>109562.5062827633</v>
+        <v>96734.31783243954</v>
       </c>
       <c r="H32">
-        <v>96734.31783243954</v>
+        <v>181569.7428571429</v>
       </c>
       <c r="I32">
-        <v>181569.7428571429</v>
+        <v>96581</v>
       </c>
       <c r="J32">
-        <v>96581</v>
+        <v>190188.7937593074</v>
       </c>
       <c r="K32">
-        <v>191583.3545189033</v>
+        <v>-187893.0017462302</v>
       </c>
       <c r="L32">
-        <v>466132.8892121066</v>
+        <v>153709.0550356616</v>
       </c>
       <c r="M32">
-        <v>153709.0550356616</v>
+        <v>1095.022401947994</v>
       </c>
       <c r="N32">
-        <v>1323.440438409991</v>
+        <v>145309.9755279968</v>
       </c>
       <c r="O32">
-        <v>170.4172219043976</v>
+        <v>23953.67028525998</v>
       </c>
       <c r="P32">
-        <v>145823.6903599317</v>
+        <v>12969.40549691285</v>
       </c>
       <c r="Q32">
-        <v>24692.83401737519</v>
+        <v>153.3178324395412</v>
       </c>
       <c r="R32">
-        <v>12981.50628276325</v>
+        <v>84988.74285714293</v>
       </c>
       <c r="S32">
-        <v>153.3178324395412</v>
+        <v>93607.79375930739</v>
       </c>
       <c r="T32">
-        <v>84988.74285714293</v>
+        <v>-284474.0017462302</v>
       </c>
       <c r="U32">
-        <v>95002.3545189033</v>
-      </c>
-      <c r="V32">
-        <v>369551.8892121066</v>
-      </c>
-      <c r="W32">
         <v>57128.05503566161</v>
       </c>
-      <c r="X32" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>7</v>
+      <c r="V32" t="s">
+        <v>6</v>
+      </c>
+      <c r="W32" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
